--- a/biology/Botanique/Pseudolarix_amabilis/Pseudolarix_amabilis.xlsx
+++ b/biology/Botanique/Pseudolarix_amabilis/Pseudolarix_amabilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Mélèze de Chine ou Mélèze doré de Chine (Pseudolarix amabilis) est une espèce d'arbres de la famille des Pinaceae. Elle est endémique en Chine. C'est la seule espèce actuellement acceptée du genre Pseudolarix. Ce dernier fait partie des genres de résineux caducifoliés (qui perdent la totalité de leurs feuilles en hiver).
 </t>
@@ -511,9 +523,11 @@
           <t>Environnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est menacée en Chine, notamment dans la vallée du Yangzi Jiang (densément construite et peuplée) où elle est endémique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est menacée en Chine, notamment dans la vallée du Yangzi Jiang (densément construite et peuplée) où elle est endémique.
 Il existe une aire de protection de P. amabilis autour du mont Taimu dans la province de Fujian (Chine).
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Bonsaï</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est souvent utilisée en bonsaï pour sa valeur décorative[2]. Elle est néanmoins très exigeante d'entretien.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est souvent utilisée en bonsaï pour sa valeur décorative. Elle est néanmoins très exigeante d'entretien.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			P. Amabilis
@@ -611,7 +629,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudolarix kaempferi
 Sur les autres projets Wikimedia :
